--- a/src/Data/UserDetail.xlsx
+++ b/src/Data/UserDetail.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Bank of Chittoor</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Last Transaction</t>
+  </si>
+  <si>
+    <t>Last Transaction Date</t>
   </si>
 </sst>
 </file>
@@ -53,11 +56,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -85,9 +88,88 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -97,17 +179,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,6 +201,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -128,103 +223,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,31 +239,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,139 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,17 +427,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,53 +486,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,140 +509,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,7 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="20"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="20" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -845,7 +843,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5333333333333" defaultRowHeight="12.75" outlineLevelRow="4"/>
@@ -858,9 +856,10 @@
     <col min="6" max="7" width="19.2857142857143" customWidth="1"/>
     <col min="8" max="8" width="17.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="18.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="22.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" ht="13" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,12 +871,12 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="3"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" ht="11" customHeight="1" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -887,12 +886,12 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="3"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" ht="12" customHeight="1" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -902,12 +901,12 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" ht="14" customHeight="1" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -917,12 +916,12 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" ht="14.25" spans="1:9">
+    <row r="5" ht="14.25" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -949,11 +948,14 @@
       </c>
       <c r="I5" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I4"/>
+    <mergeCell ref="A1:J4"/>
   </mergeCells>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/Data/UserDetail.xlsx
+++ b/src/Data/UserDetail.xlsx
@@ -14,24 +14,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Account No</t>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>Account Balance</t>
+  </si>
+  <si>
+    <t>Last Deposite</t>
+  </si>
+  <si>
+    <t>Last Transaction</t>
+  </si>
+  <si>
+    <t>Last Transaction Date/Time</t>
+  </si>
   <si>
     <t>Shubhash Singh</t>
   </si>
   <si>
+    <t>17077480451758864</t>
+  </si>
+  <si>
+    <t>9381560406</t>
+  </si>
+  <si>
+    <t>subhashsingh2059@gmail.com</t>
+  </si>
+  <si>
     <t>Zapkto9@</t>
   </si>
   <si>
-    <t>9381560406</t>
-  </si>
-  <si>
-    <t>subhashsingh2059@gmail.com</t>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>Nisha Pandey</t>
+  </si>
+  <si>
+    <t>17077481098644571</t>
+  </si>
+  <si>
+    <t>7337498907</t>
+  </si>
+  <si>
+    <t>neshapandey4@gmail.com</t>
+  </si>
+  <si>
+    <t>Nisha</t>
   </si>
   <si>
     <t>Saving</t>
   </si>
   <si>
-    <t>15000</t>
+    <t>2500</t>
   </si>
 </sst>
 </file>
@@ -378,21 +432,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="37.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="2" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="2" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="25.14785714285714"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="21.719285714285714"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.43357142857143"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="37.57642857142857"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="20.14785714285714"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="17.862142857142857"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="22.862142857142857"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="13.005"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="20.719285714285714"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="26.290714285714284"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -405,6 +460,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1"/>
@@ -416,44 +472,59 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1"/>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Data/UserDetail.xlsx
+++ b/src/Data/UserDetail.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Account No</t>
-  </si>
-  <si>
-    <t>Mobile No</t>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>Phine Number</t>
   </si>
   <si>
     <t>Email Address</t>
@@ -34,7 +34,7 @@
     <t>Account Type</t>
   </si>
   <si>
-    <t>Account Balance</t>
+    <t>Balance</t>
   </si>
   <si>
     <t>Last Deposite</t>
@@ -43,7 +43,7 @@
     <t>Last Transaction</t>
   </si>
   <si>
-    <t>Last Transaction Date/Time</t>
+    <t>Last Trans Details</t>
   </si>
   <si>
     <t>Shubhash Singh</t>
@@ -67,6 +67,9 @@
     <t>1500</t>
   </si>
   <si>
+    <t>+ 1500</t>
+  </si>
+  <si>
     <t>Nisha Pandey</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>2500</t>
+  </si>
+  <si>
+    <t>+ 2500</t>
   </si>
 </sst>
 </file>
@@ -438,16 +444,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="25.14785714285714"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="21.719285714285714"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.43357142857143"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="37.57642857142857"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="20.14785714285714"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="17.862142857142857"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="22.862142857142857"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="13.005"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="20.719285714285714"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="26.290714285714284"/>
+    <col min="1" max="1" style="2" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="37.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="2" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="2" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="2" width="26.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -463,68 +469,96 @@
       <c r="J1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s" s="2">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s" s="2">
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Data/UserDetail.xlsx
+++ b/src/Data/UserDetail.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -22,10 +22,10 @@
     <t>Account Number</t>
   </si>
   <si>
-    <t>Phine Number</t>
-  </si>
-  <si>
-    <t>Email Address</t>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
   <si>
     <t>Password</t>
@@ -43,16 +43,19 @@
     <t>Last Transaction</t>
   </si>
   <si>
-    <t>Last Trans Details</t>
+    <t>Transaction Time</t>
+  </si>
+  <si>
+    <t>Transaction Details</t>
   </si>
   <si>
     <t>Shubhash Singh</t>
   </si>
   <si>
-    <t>17077480451758864</t>
-  </si>
-  <si>
-    <t>9381560406</t>
+    <t>17078798351431456</t>
+  </si>
+  <si>
+    <t>+91-9381560406</t>
   </si>
   <si>
     <t>subhashsingh2059@gmail.com</t>
@@ -61,37 +64,19 @@
     <t>Zapkto9@</t>
   </si>
   <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>+ 1500</t>
-  </si>
-  <si>
-    <t>Nisha Pandey</t>
-  </si>
-  <si>
-    <t>17077481098644571</t>
-  </si>
-  <si>
-    <t>7337498907</t>
-  </si>
-  <si>
-    <t>neshapandey4@gmail.com</t>
-  </si>
-  <si>
-    <t>Nisha</t>
-  </si>
-  <si>
     <t>Saving</t>
   </si>
   <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>+ 2500</t>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>+ 15000</t>
+  </si>
+  <si>
+    <t>2024-02-14 at 08:33:56</t>
+  </si>
+  <si>
+    <t>+15000 Initial Deposite on</t>
   </si>
 </sst>
 </file>
@@ -161,28 +146,28 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F818D"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -438,127 +423,94 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="37.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="2" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="2" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="2" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="13.005"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="25.005"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="26.290714285714284"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="33.43357142857143"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="13.005"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.005"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="13.005"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.862142857142857"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="26.290714285714284"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="25.14785714285714"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="44.29071428571429"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B2" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C2" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D2" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E2" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F2" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G2" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="1" t="s">
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="J2" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="K2" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Data/UserDetail.xlsx
+++ b/src/Data/UserDetail.xlsx
@@ -429,17 +429,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="13.005"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="25.005"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="26.290714285714284"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="33.43357142857143"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="13.005"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.005"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="13.005"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.862142857142857"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="26.290714285714284"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="25.14785714285714"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="44.29071428571429"/>
+    <col min="1" max="1" style="2" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="33.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="2" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="2" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="2" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="2" width="44.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -477,38 +477,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/src/Data/UserDetail.xlsx
+++ b/src/Data/UserDetail.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -49,52 +49,61 @@
     <t>Transaction Details</t>
   </si>
   <si>
+    <t>Nisha Pandey</t>
+  </si>
+  <si>
+    <t>17079673838162881</t>
+  </si>
+  <si>
+    <t>+91-7337498907</t>
+  </si>
+  <si>
+    <t>neshapandey4@gmail.com</t>
+  </si>
+  <si>
+    <t>Nisha9@</t>
+  </si>
+  <si>
+    <t>Saving</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>+ 15000</t>
+  </si>
+  <si>
+    <t>2024-02-15 at 08:53:04</t>
+  </si>
+  <si>
+    <t>+15000 Initial Deposite on</t>
+  </si>
+  <si>
     <t>Shubhash Singh</t>
   </si>
   <si>
-    <t>17078798351431456</t>
-  </si>
-  <si>
-    <t>+91-9381560406</t>
-  </si>
-  <si>
-    <t>subhashsingh2059@gmail.com</t>
+    <t>17079885814997738</t>
+  </si>
+  <si>
+    <t>+91-9472078058</t>
+  </si>
+  <si>
+    <t>zapkto9@gmail.com</t>
   </si>
   <si>
     <t>Zapkto9@</t>
   </si>
   <si>
-    <t>Saving</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>+ 15000</t>
-  </si>
-  <si>
-    <t>2024-02-14 at 08:33:56</t>
-  </si>
-  <si>
-    <t>+15000 Initial Deposite on</t>
-  </si>
-  <si>
-    <t>Nisha Pandey</t>
-  </si>
-  <si>
-    <t>17079673838162881</t>
-  </si>
-  <si>
-    <t>+91-7337498907</t>
-  </si>
-  <si>
-    <t>neshapandey4@gmail.com</t>
-  </si>
-  <si>
-    <t>Nisha9@</t>
-  </si>
-  <si>
-    <t>2024-02-15 at 08:53:04</t>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>+ 12000</t>
+  </si>
+  <si>
+    <t>2024-02-15 at 14:46:22</t>
+  </si>
+  <si>
+    <t>+12000 Initial Deposite on</t>
   </si>
 </sst>
 </file>
@@ -131,12 +140,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -447,17 +462,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.290714285714284"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="25.005"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="26.290714285714284"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="33.43357142857143"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="13.005"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.005"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="13.005"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.862142857142857"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="26.290714285714284"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="25.14785714285714"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="44.29071428571429"/>
+    <col min="1" max="1" style="3" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="33.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="3" width="44.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -479,7 +494,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -514,8 +529,8 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
+      <c r="G2" s="2">
+        <v>15000</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
@@ -530,39 +545,39 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="G3" s="2">
+        <v>12000</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s" s="2">
-        <v>20</v>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/Data/UserDetail.xlsx
+++ b/src/Data/UserDetail.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -104,31 +104,394 @@
   </si>
   <si>
     <t>+12000 Initial Deposite on</t>
+  </si>
+  <si>
+    <t>16000.0</t>
+  </si>
+  <si>
+    <t>11000.0</t>
+  </si>
+  <si>
+    <t>+1000</t>
+  </si>
+  <si>
+    <t>-1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> on 2024-02-16 at 16:31:07</t>
+  </si>
+  <si>
+    <t>Received 1000from Shubhash Singh</t>
+  </si>
+  <si>
+    <t>Sent 1000 to Nisha Pandey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -136,33 +499,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -173,10 +826,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -214,71 +867,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -306,7 +959,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -329,11 +982,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -342,13 +995,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -358,7 +1011,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -367,7 +1020,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -376,7 +1029,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -384,10 +1037,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -447,35 +1100,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" style="3" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="33.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="3" width="44.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="18.2916666666667"/>
+    <col min="2" max="2" customWidth="true" style="1" width="25.0083333333333"/>
+    <col min="3" max="3" customWidth="true" style="1" width="26.2916666666667"/>
+    <col min="4" max="4" customWidth="true" style="1" width="33.4333333333333"/>
+    <col min="5" max="6" customWidth="true" style="1" width="13.0083333333333"/>
+    <col min="7" max="7" customWidth="true" style="2" width="13.0083333333333"/>
+    <col min="8" max="8" customWidth="true" style="1" width="23.8583333333333"/>
+    <col min="9" max="9" customWidth="true" style="1" width="26.2916666666667"/>
+    <col min="10" max="10" customWidth="true" style="1" width="25.15"/>
+    <col min="11" max="11" customWidth="true" style="1" width="44.2916666666667"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" ht="18" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +1147,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -510,7 +1163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row r="2" ht="18" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -529,23 +1182,23 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2">
-        <v>15000</v>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row r="3" ht="18" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -564,23 +1217,24 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2">
-        <v>12000</v>
+      <c r="G3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/Data/UserDetail.xlsx
+++ b/src/Data/UserDetail.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -125,6 +125,60 @@
   </si>
   <si>
     <t>Sent 1000 to Nisha Pandey</t>
+  </si>
+  <si>
+    <t>26000.0</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>+10000</t>
+  </si>
+  <si>
+    <t>-10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> on 2024-02-16 at 16:46:59</t>
+  </si>
+  <si>
+    <t>Received 10000 from Shubhash Singh</t>
+  </si>
+  <si>
+    <t>Sent 10000 to Nisha Pandey</t>
+  </si>
+  <si>
+    <t>17080824033178231</t>
+  </si>
+  <si>
+    <t>+91-9381560406</t>
+  </si>
+  <si>
+    <t>subhashsingh2059@gmail.com</t>
+  </si>
+  <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t>+ 120000</t>
+  </si>
+  <si>
+    <t>2024-02-16 at 16:50:04</t>
+  </si>
+  <si>
+    <t>+120000 Initial Deposite on</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>2024-02-16 at 19:50:01</t>
+  </si>
+  <si>
+    <t>+10000 Deposite on</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1162,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
@@ -1183,19 +1237,19 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:11">
@@ -1218,19 +1272,54 @@
         <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s" s="1">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
